--- a/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,69 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7337723410716AA733F587338D8BA287A74A3C1E" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>Congressional Budget Office</t>
+  </si>
+  <si>
+    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
+  </si>
+  <si>
+    <t>http://www.cbo.gov/publication/43709</t>
+  </si>
+  <si>
+    <t>Workers</t>
+  </si>
+  <si>
     <t>WMITR Worker Marginal Income Tax Rate</t>
   </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
-    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
-  </si>
-  <si>
-    <t>http://www.cbo.gov/publication/43709</t>
-  </si>
-  <si>
     <t>Summary, headline of third paragraph</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
+    <t>450% of the federal poverty level.</t>
+  </si>
+  <si>
     <t>This is the average marginal income tax rate faced by workers who earn less than</t>
   </si>
   <si>
-    <t>450% of the federal poverty level.</t>
-  </si>
-  <si>
-    <t>Marginal Income Tax Rate</t>
-  </si>
-  <si>
-    <t>Workers</t>
+    <t>Marginal Income Tax Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +107,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -213,23 +209,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,23 +244,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,64 +419,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -522,27 +484,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -554,24 +518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -805,14 +751,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC05FBC8-4467-43A6-8D44-18F931387D19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048E6601-2B96-4F56-A92F-8B5E5B49D9E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C686F32-3756-4F19-A46D-D3271D891557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB29EE2A-0508-42D4-B634-1A0B63C4D145}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A33324F-7FDD-42A5-8961-9C9C8EEA7008}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81501504-1AA1-4A75-B330-4672CC38140A}"/>
 </file>